--- a/TableSchema_wNotes_TS.xlsx
+++ b/TableSchema_wNotes_TS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manat\OneDrive\Documents\GitHub\w207_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF56561-B217-4741-AD47-9DA7F51C1E87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B60F4-3524-422C-8D92-1ABB544B309B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B213FAE8-7D35-4920-9262-4ED3DEAD22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t xml:space="preserve"> Field Name </t>
   </si>
@@ -237,9 +240,6 @@
     <t xml:space="preserve"> Unit timestamp of request in UTC. </t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Could be interesting to explore how frequently some users are giving - Explore by giver vs requester</t>
   </si>
   <si>
@@ -304,6 +304,60 @@
   </si>
   <si>
     <t>Interesting dynamic, though we could certainly use this as a startin gpoint for different types of categorizations based on summary of user behavior.</t>
+  </si>
+  <si>
+    <t>Perhaps a QC issue? Exclude to get a more "pure" sample?</t>
+  </si>
+  <si>
+    <t>If we need any more summary stats at user level, aggregate here (think we are likely good)</t>
+  </si>
+  <si>
+    <t>Community Effects (Secondary)</t>
+  </si>
+  <si>
+    <t>Feature Group</t>
+  </si>
+  <si>
+    <t>Request Content</t>
+  </si>
+  <si>
+    <t>OUTCOME</t>
+  </si>
+  <si>
+    <t>Requester Profile - Secondary</t>
+  </si>
+  <si>
+    <t>Requester Profile - Primary</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Unknown at time of request</t>
+  </si>
+  <si>
+    <t>Prelim Notes</t>
+  </si>
+  <si>
+    <t>Feature Notes</t>
+  </si>
+  <si>
+    <t>NA - retrieval</t>
+  </si>
+  <si>
+    <t>Exogenous</t>
+  </si>
+  <si>
+    <t>NA - use edit_aware</t>
+  </si>
+  <si>
+    <t>FOR ADDITIONAL SUMMARY STATS</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>NA - use utc</t>
   </si>
 </sst>
 </file>
@@ -358,12 +412,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,32 +438,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -721,32 +807,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED70E6-62C6-4359-BA38-DAF6B3834C9D}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.33203125" customWidth="1"/>
-    <col min="3" max="3" width="70.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.5546875" customWidth="1"/>
+    <col min="3" max="3" width="70.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -754,21 +848,30 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -776,10 +879,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -787,73 +896,103 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -861,21 +1000,27 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -883,21 +1028,27 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -905,21 +1056,27 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -927,21 +1084,27 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -949,21 +1112,27 @@
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -971,21 +1140,27 @@
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -993,21 +1168,27 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1015,10 +1196,13 @@
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1026,21 +1210,27 @@
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1048,21 +1238,27 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1070,29 +1266,41 @@
         <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1100,12 +1308,16 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C34">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <autoFilter ref="A1:E1" xr:uid="{11B2CA13-40DD-4A82-BB65-5D0C3AE2BF63}"/>
+  <conditionalFormatting sqref="A2:E34">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TableSchema_wNotes_TS.xlsx
+++ b/TableSchema_wNotes_TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manat\OneDrive\Documents\GitHub\w207_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B60F4-3524-422C-8D92-1ABB544B309B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831EDE0-5700-4F8A-B48F-2913056BC4C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B213FAE8-7D35-4920-9262-4ED3DEAD22D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B213FAE8-7D35-4920-9262-4ED3DEAD22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t xml:space="preserve"> Field Name </t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>NA - use utc</t>
+  </si>
+  <si>
+    <t>Which are in Test data</t>
   </si>
 </sst>
 </file>
@@ -468,28 +471,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -807,23 +789,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED70E6-62C6-4359-BA38-DAF6B3834C9D}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5546875" customWidth="1"/>
-    <col min="3" max="3" width="70.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -839,8 +821,11 @@
       <c r="E1" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -857,7 +842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -871,7 +856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -888,7 +873,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -905,7 +890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -919,7 +904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -933,7 +918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -950,7 +935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -964,7 +949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -978,7 +963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -992,7 +977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +991,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1048,7 +1033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1062,7 +1047,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1104,7 +1089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1118,7 +1103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1132,7 +1117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1146,7 +1131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1160,7 +1145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1174,7 +1159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1188,7 +1173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1202,7 +1187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1201,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1230,7 +1215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1244,7 +1229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1258,7 +1243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1272,7 +1257,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1286,7 +1271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1300,7 +1285,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1317,7 +1302,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{11B2CA13-40DD-4A82-BB65-5D0C3AE2BF63}"/>
   <conditionalFormatting sqref="A2:E34">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
